--- a/data/DATA_RESEARCH_AND_INFORMATIONS.xlsx
+++ b/data/DATA_RESEARCH_AND_INFORMATIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaque\OneDrive\Dokumente\FH-St.Pölten\Forschungsinstitut\EXIST\EXIST2022_REPO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5177D796-E3DE-4F84-A4D1-858C8ECA05A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF8427-C627-40D6-8C6B-934BFB380245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{591FF440-74C9-4904-A025-54994A0831C8}"/>
+    <workbookView xWindow="28680" yWindow="-3300" windowWidth="29040" windowHeight="15720" xr2:uid="{591FF440-74C9-4904-A025-54994A0831C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -774,28 +774,80 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,49 +859,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,15 +884,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,64 +895,48 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910862B2-CCC7-4C47-A96B-F6FB93A379AF}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,45 +1274,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="86"/>
+      <c r="M1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="37"/>
+      <c r="O1" s="87"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
         <v>60</v>
       </c>
@@ -1320,340 +1320,340 @@
         <v>59</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="38"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="38" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="60"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="60"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="60"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="43"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="38"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="76" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="N8" s="56" t="s">
+      <c r="M8" s="76"/>
+      <c r="N8" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="57"/>
+      <c r="O8" s="79"/>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="58"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="80"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="67" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="59"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="65"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="60"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="60"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="43"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="65"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="60"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="43"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="65"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="60"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="43"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="65"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="60"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="43"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="66"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" ht="72" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="17"/>
@@ -1661,47 +1661,47 @@
         <v>63</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41" t="s">
+      <c r="H17" s="67"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="49" t="s">
+      <c r="M17" s="38"/>
+      <c r="N17" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="59"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="38"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="44"/>
     </row>
     <row r="19" spans="1:15" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
@@ -1739,364 +1739,364 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="45" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="24"/>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="49" t="s">
+      <c r="H20" s="67"/>
+      <c r="I20" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="49" t="s">
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="59"/>
+      <c r="O20" s="42"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="74"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="60"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="43"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="60"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="74"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="60"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="74"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="60"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="74"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="60"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="74"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="60"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="43"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="74"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="60"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="43"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="74"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="60"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="43"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="74"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="60"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="43"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="74"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="60"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="74"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="60"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="74"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="60"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="43"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="74"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="25"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="60"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="43"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="74"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="60"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="43"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="74"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="25"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="60"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="43"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="74"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="60"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="74"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="25"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="60"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="43"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="74"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="60"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="43"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="75"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="38"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="44"/>
     </row>
     <row r="40" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
@@ -2161,10 +2161,10 @@
       <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="87" t="s">
+      <c r="G42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="89" t="s">
+      <c r="I42" s="37" t="s">
         <v>80</v>
       </c>
       <c r="J42" t="s">
@@ -2181,10 +2181,71 @@
       <c r="B43" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="88"/>
+      <c r="G43" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K10:K16"/>
+    <mergeCell ref="L10:L16"/>
+    <mergeCell ref="M10:M16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="N10:N16"/>
+    <mergeCell ref="O10:O16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="A20:A39"/>
+    <mergeCell ref="B20:B39"/>
+    <mergeCell ref="F20:F39"/>
+    <mergeCell ref="G20:G39"/>
+    <mergeCell ref="H20:H39"/>
     <mergeCell ref="M20:M39"/>
     <mergeCell ref="N20:N39"/>
     <mergeCell ref="O20:O39"/>
@@ -2201,67 +2262,6 @@
     <mergeCell ref="K20:K39"/>
     <mergeCell ref="L20:L39"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A20:A39"/>
-    <mergeCell ref="B20:B39"/>
-    <mergeCell ref="F20:F39"/>
-    <mergeCell ref="G20:G39"/>
-    <mergeCell ref="H20:H39"/>
-    <mergeCell ref="N10:N16"/>
-    <mergeCell ref="O10:O16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="H10:H16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K10:K16"/>
-    <mergeCell ref="L10:L16"/>
-    <mergeCell ref="M10:M16"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="https://arxiv.org/abs/2007.04181" xr:uid="{69E400D1-6258-418B-9B33-5F9196055B8F}"/>
